--- a/bubblesort.xlsx
+++ b/bubblesort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pastas\uf\6_semestre\edb_II\u_1\atividade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\brenoj\edb2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F397A2-F5A8-4333-8FC6-99CFFE3A34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0F949-03A8-4C08-897B-011B7D8D9A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{0D198833-6F9F-4070-9654-EBB22D3FC3C2}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,10 +796,9 @@
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -908,11 +907,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
